--- a/data/net-param.xlsx
+++ b/data/net-param.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ASPDAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\tex\TRETS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="570" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="570" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="硬件估算" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="AlexNet" sheetId="1" r:id="rId3"/>
     <sheet name="VGG" sheetId="2" r:id="rId4"/>
-    <sheet name="ResNet" sheetId="3" r:id="rId5"/>
+    <sheet name="ResNet-34" sheetId="3" r:id="rId5"/>
     <sheet name="SqueezeNet" sheetId="8" r:id="rId6"/>
     <sheet name="LeNet" sheetId="5" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId8"/>
+    <sheet name="ResNet-152" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
   <si>
     <t>Layer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,10 @@
   </si>
   <si>
     <t>Computation (GOP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResNet-152</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -876,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +926,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,17 +944,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,6 +986,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1278,6 +1286,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2995,12 +3004,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -3173,13 +3182,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H9" t="s">
@@ -3214,13 +3223,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
       <c r="G10" t="s">
         <v>61</v>
       </c>
@@ -3432,13 +3441,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
       <c r="K18">
         <v>1024</v>
       </c>
@@ -3913,21 +3922,21 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="4" t="s">
         <v>79</v>
       </c>
@@ -4207,7 +4216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -5185,20 +5194,20 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="13" t="s">
         <v>166</v>
       </c>
@@ -5319,7 +5328,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="21" t="s">
         <v>183</v>
       </c>
@@ -5328,10 +5337,10 @@
         <v>170</v>
       </c>
       <c r="E54" s="22"/>
-      <c r="G54" s="20"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="14" t="s">
         <v>166</v>
       </c>
@@ -5451,17 +5460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5966,17 +5975,17 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -6691,17 +6700,17 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -7537,7 +7546,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7550,23 +7559,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="L1" s="19" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="L1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -9060,7 +9069,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="G3" sqref="G3:G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10186,23 +10195,23 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -10476,622 +10485,5029 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C53"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>224</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="0">B3*B3*C3</f>
+        <v>150528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4">
         <v>64</v>
       </c>
-      <c r="B3">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>802816</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <f>C3*C4*E4*F4</f>
+        <v>9408</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>B4*B4*E4*F4*C3*C4</f>
+        <v>118013952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>64</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>200704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>200704</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G11" si="1">C5*C6*E6*F6</f>
+        <v>4096</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f>B6*B6*E6*F6*C5*C6</f>
+        <v>12845056</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>200704</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>36864</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ref="I7:I14" si="2">B7*B7*E7*F7*C6*C7</f>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>256</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>802816</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:D18" si="3">B9*B9*C9</f>
+        <v>200704</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G17" si="4">C8*C9*E9*F9</f>
+        <v>16384</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>200704</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>36864</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>802816</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>200704</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>200704</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>36864</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>256</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>802816</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>16384</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>256</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>200704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>100352</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="5">C15*C16*E16*F16</f>
+        <v>32768</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f>B16*B16*E16*F16*C15*C16</f>
+        <v>25690112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>128</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>100352</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>147456</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I39" si="6">B17*B17*E17*F17*C16*C17</f>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>512</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>401408</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>65536</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>128</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D24" si="7">B19*B19*C19</f>
+        <v>100352</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G24" si="8">C18*C19*E19*F19</f>
+        <v>65536</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>128</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>100352</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="8"/>
+        <v>147456</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>512</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>401408</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="8"/>
+        <v>65536</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>100352</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="8"/>
+        <v>65536</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>128</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>100352</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="8"/>
+        <v>147456</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>512</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="7"/>
+        <v>401408</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="8"/>
+        <v>65536</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D36" si="9">B25*B25*C25</f>
+        <v>100352</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ref="G25:G36" si="10">C24*C25*E25*F25</f>
+        <v>65536</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>128</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="10"/>
+        <v>147456</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>512</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>401408</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>128</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="10"/>
+        <v>147456</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>512</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>401408</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>128</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>128</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="10"/>
+        <v>147456</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <v>512</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>401408</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>128</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35">
+        <v>128</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="9"/>
+        <v>100352</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="10"/>
+        <v>147456</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>28</v>
+      </c>
+      <c r="C36">
+        <v>512</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="9"/>
+        <v>401408</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="10"/>
+        <v>65536</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D43" si="11">B37*B37*C37</f>
+        <v>100352</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G39" si="12">C36*C37*E37*F37</f>
+        <v>65536</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>128</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="11"/>
+        <v>100352</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="12"/>
+        <v>147456</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="6"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>512</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>401408</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="12"/>
+        <v>65536</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="6"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>14</v>
+      </c>
+      <c r="C40">
+        <v>512</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="11"/>
+        <v>100352</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>256</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>50176</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:G43" si="13">C40*C41*E41*F41</f>
+        <v>131072</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <f>B41*B41*E41*F41*C40*C41</f>
+        <v>25690112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>256</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>50176</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="13"/>
+        <v>589824</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <f t="shared" ref="I42:I105" si="14">B42*B42*E42*F42*C41*C42</f>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>1024</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>200704</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="13"/>
+        <v>262144</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>256</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D55" si="15">B44*B44*C44</f>
+        <v>50176</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ref="G44:G55" si="16">C43*C44*E44*F44</f>
+        <v>262144</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>256</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="16"/>
+        <v>589824</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>1024</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="15"/>
+        <v>200704</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>256</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>256</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="16"/>
+        <v>589824</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>1024</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="15"/>
+        <v>200704</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>256</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="C3">
-        <f>A2*A3*B3</f>
-        <v>9408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>256</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="16"/>
+        <v>589824</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>1024</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="15"/>
+        <v>200704</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>256</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>256</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="15"/>
+        <v>50176</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="16"/>
+        <v>589824</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>1024</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="15"/>
+        <v>200704</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="16"/>
+        <v>262144</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>256</v>
+      </c>
+      <c r="D56">
+        <f t="shared" ref="D56:D91" si="17">B56*B56*C56</f>
+        <v>50176</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" ref="G56:G91" si="18">C55*C56*E56*F56</f>
+        <v>262144</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>256</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>1024</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>256</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>256</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>14</v>
+      </c>
+      <c r="C61">
+        <v>1024</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>256</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>256</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>14</v>
+      </c>
+      <c r="C64">
+        <v>1024</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>256</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C51" si="0">A3*A4*B4</f>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>64</v>
-      </c>
-      <c r="B5">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>36864</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B66">
+        <v>14</v>
+      </c>
+      <c r="C66">
         <v>256</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>64</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>36864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D66">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <v>1024</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>14</v>
+      </c>
+      <c r="C68">
         <v>256</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>64</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>36864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D68">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="C69">
         <v>256</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D69">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+      <c r="C70">
+        <v>1024</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>256</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>14</v>
+      </c>
+      <c r="C72">
+        <v>256</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>1024</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>14</v>
+      </c>
+      <c r="C74">
+        <v>256</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>14</v>
+      </c>
+      <c r="C75">
+        <v>256</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>1024</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>256</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>256</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79">
+        <v>1024</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>256</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>256</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>14</v>
+      </c>
+      <c r="C82">
+        <v>1024</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>256</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>256</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>14</v>
+      </c>
+      <c r="C85">
+        <v>1024</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>256</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>256</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+      <c r="C88">
+        <v>1024</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>256</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>14</v>
+      </c>
+      <c r="C90">
+        <v>256</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="17"/>
+        <v>50176</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="18"/>
+        <v>589824</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>1024</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="17"/>
+        <v>200704</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="18"/>
+        <v>262144</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>256</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ref="D92:D149" si="19">B92*B92*C92</f>
+        <v>50176</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <f t="shared" ref="G92:G148" si="20">C91*C92*E92*F92</f>
+        <v>262144</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>14</v>
+      </c>
+      <c r="C93">
+        <v>256</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>1024</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>256</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>256</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>1024</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>14</v>
+      </c>
+      <c r="C98">
+        <v>256</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>14</v>
+      </c>
+      <c r="C99">
+        <v>256</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>14</v>
+      </c>
+      <c r="C100">
+        <v>1024</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>256</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>14</v>
+      </c>
+      <c r="C102">
+        <v>256</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>1024</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>14</v>
+      </c>
+      <c r="C104">
+        <v>256</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="14"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>256</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="14"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>14</v>
+      </c>
+      <c r="C106">
+        <v>1024</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <f t="shared" ref="I106:I160" si="21">B106*B106*E106*F106*C105*C106</f>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>14</v>
+      </c>
+      <c r="C107">
+        <v>256</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>256</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>3</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>1024</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>256</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>256</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>3</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>1024</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>256</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>256</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>1024</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>256</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>256</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>1024</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>256</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>256</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>1024</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>256</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>256</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>1024</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>14</v>
+      </c>
+      <c r="C125">
+        <v>256</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>256</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>14</v>
+      </c>
+      <c r="C127">
+        <v>1024</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <v>256</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>256</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130">
         <v>128</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>128</v>
-      </c>
-      <c r="B14">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>147456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B130">
+        <v>14</v>
+      </c>
+      <c r="C130">
+        <v>1024</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>14</v>
+      </c>
+      <c r="C131">
+        <v>256</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>256</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>1024</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>256</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>256</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>14</v>
+      </c>
+      <c r="C136">
+        <v>1024</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>256</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>14</v>
+      </c>
+      <c r="C138">
+        <v>256</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>14</v>
+      </c>
+      <c r="C139">
+        <v>1024</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>256</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="C141">
+        <v>256</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>14</v>
+      </c>
+      <c r="C142">
+        <v>1024</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>14</v>
+      </c>
+      <c r="C143">
+        <v>256</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>14</v>
+      </c>
+      <c r="C144">
+        <v>256</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>14</v>
+      </c>
+      <c r="C145">
+        <v>1024</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>14</v>
+      </c>
+      <c r="C146">
+        <v>256</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>256</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="20"/>
+        <v>589824</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>14</v>
+      </c>
+      <c r="C148">
+        <v>1024</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="19"/>
+        <v>200704</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="20"/>
+        <v>262144</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>1024</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="19"/>
+        <v>50176</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7</v>
+      </c>
+      <c r="C150">
         <v>512</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>128</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>128</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>147456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="D150">
+        <f t="shared" ref="D150:D152" si="22">B150*B150*C150</f>
+        <v>25088</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <f t="shared" ref="G150:G152" si="23">C149*C150*E150*F150</f>
+        <v>524288</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="21"/>
+        <v>25690112</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7</v>
+      </c>
+      <c r="C151">
         <v>512</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>128</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>128</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>147456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="D151">
+        <f t="shared" si="22"/>
+        <v>25088</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="23"/>
+        <v>2359296</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>2048</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="22"/>
+        <v>100352</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="23"/>
+        <v>1048576</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153">
         <v>512</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>128</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>128</v>
-      </c>
-      <c r="B23">
-        <v>9</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>147456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="D153">
+        <f t="shared" ref="D153:D160" si="24">B153*B153*C153</f>
+        <v>25088</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <f t="shared" ref="G153:G158" si="25">C152*C153*E153*F153</f>
+        <v>1048576</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>7</v>
+      </c>
+      <c r="C154">
         <v>512</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>256</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>131072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>256</v>
-      </c>
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1024</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>256</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>256</v>
-      </c>
-      <c r="B29">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1024</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>256</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>256</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1024</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>256</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>256</v>
-      </c>
-      <c r="B35">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="0"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1024</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>256</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>256</v>
-      </c>
-      <c r="B38">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="0"/>
-        <v>589824</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1024</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="D154">
+        <f t="shared" si="24"/>
+        <v>25088</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="25"/>
+        <v>2359296</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>2048</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="24"/>
+        <v>100352</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="25"/>
+        <v>1048576</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>7</v>
+      </c>
+      <c r="C156">
         <v>512</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="0"/>
-        <v>524288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="D156">
+        <f t="shared" si="24"/>
+        <v>25088</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="25"/>
+        <v>1048576</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>7</v>
+      </c>
+      <c r="C157">
         <v>512</v>
       </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="0"/>
+      <c r="D157">
+        <f t="shared" si="24"/>
+        <v>25088</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="25"/>
         <v>2359296</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="21"/>
+        <v>115605504</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>7</v>
+      </c>
+      <c r="C158">
         <v>2048</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="0"/>
+      <c r="D158">
+        <f t="shared" si="24"/>
+        <v>100352</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="25"/>
         <v>1048576</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>512</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>512</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="21"/>
+        <v>51380224</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
         <v>2048</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>512</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>512</v>
-      </c>
-      <c r="B47">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <f>A46*A47*B47</f>
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="D159">
+        <f t="shared" si="24"/>
         <v>2048</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>512</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>512</v>
-      </c>
-      <c r="B50">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2359296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>2048</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C52">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>1000</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="24"/>
+        <v>1000</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <f t="shared" ref="G160" si="26">C159*C160*E160*F160</f>
         <v>2048000</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C53">
-        <f>SUM(C3:C52)</f>
-        <v>26076352</v>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="21"/>
+        <v>2048000</v>
+      </c>
+    </row>
+    <row r="161" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G161">
+        <f>SUM(G3:G160)</f>
+        <v>57271488</v>
+      </c>
+      <c r="I161">
+        <f>SUM(I3:I160)</f>
+        <v>10922754048</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/data/net-param.xlsx
+++ b/data/net-param.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="570" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="570" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="硬件估算" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="SqueezeNet" sheetId="8" r:id="rId6"/>
     <sheet name="LeNet" sheetId="5" r:id="rId7"/>
     <sheet name="ResNet-152" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -4216,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7546,7 +7547,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10487,8 +10488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H158" sqref="H158"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10551,7 +10552,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D11" si="0">B3*B3*C3</f>
+        <f t="shared" ref="D3:D8" si="0">B3*B3*C3</f>
         <v>150528</v>
       </c>
     </row>
@@ -10623,7 +10624,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G11" si="1">C5*C6*E6*F6</f>
+        <f t="shared" ref="G6:G8" si="1">C5*C6*E6*F6</f>
         <v>4096</v>
       </c>
       <c r="H6">
@@ -10719,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G17" si="4">C8*C9*E9*F9</f>
+        <f t="shared" ref="G9:G14" si="4">C8*C9*E9*F9</f>
         <v>16384</v>
       </c>
       <c r="H9">
@@ -15512,4 +15513,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F3:F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f>A3*B3*C3*D3/E3</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>384</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f>(1*1*C4*D4/4/E4+3*3*D4/4+1*1*D4*D4/4/E4)</f>
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>384</v>
+      </c>
+      <c r="D5">
+        <v>384</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <f>(1*1*C5*D5/4/E5+3*3*D5/4+1*1*D5*D5/4/E5)</f>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>384</v>
+      </c>
+      <c r="D6">
+        <v>384</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>(1*1*C6*D6/4/E6+3*3*D6/4+1*1*D6*D6/4/E6)</f>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>384</v>
+      </c>
+      <c r="D7">
+        <v>384</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f>(1*1*C7*D7/4/E7+3*3*D7/4+1*1*D7*D7/4/E7)</f>
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>384</v>
+      </c>
+      <c r="D8">
+        <v>768</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <f>(1*1*C8*D8/4/E8+3*3*D8/4+1*1*D8*D8/4/E8)</f>
+        <v>29376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>768</v>
+      </c>
+      <c r="D9">
+        <v>768</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>(1*1*C9*D9/4/E9+3*3*D9/4+1*1*D9*D9/4/E9)</f>
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>768</v>
+      </c>
+      <c r="D10">
+        <v>768</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <f>(1*1*C10*D10/4/E10+3*3*D10/4+1*1*D10*D10/4/E10)</f>
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>768</v>
+      </c>
+      <c r="D11">
+        <v>768</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f>(1*1*C11*D11/4/E11+3*3*D11/4+1*1*D11*D11/4/E11)</f>
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>768</v>
+      </c>
+      <c r="D12">
+        <v>768</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <f>(1*1*C12*D12/4/E12+3*3*D12/4+1*1*D12*D12/4/E12)</f>
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>768</v>
+      </c>
+      <c r="D13">
+        <v>768</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f>(1*1*C13*D13/4/E13+3*3*D13/4+1*1*D13*D13/4/E13)</f>
+        <v>38592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>768</v>
+      </c>
+      <c r="D14">
+        <v>1536</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <f>(1*1*C14*D14/4/E14+3*3*D14/4+1*1*D14*D14/4/E14)</f>
+        <v>114048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1536</v>
+      </c>
+      <c r="D15">
+        <v>1536</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f>(1*1*C15*D15/4/E15+3*3*D15/4+1*1*D15*D15/4/E15)</f>
+        <v>150912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>1536</v>
+      </c>
+      <c r="D16">
+        <v>1536</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <f>(1*1*C16*D16/4/E16+3*3*D16/4+1*1*D16*D16/4/E16)</f>
+        <v>150912</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>1536</v>
+      </c>
+      <c r="D17">
+        <v>1536</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <f>(1*1*C17*D17/4/E17+3*3*D17/4+1*1*D17*D17/4/E17)</f>
+        <v>150912</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f>1536*1000</f>
+        <v>1536000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>